--- a/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="762">
   <si>
     <t>Property</t>
   </si>
@@ -513,7 +513,7 @@
     <t>MedicationDispense.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Procedure)
 </t>
   </si>
   <si>
@@ -936,7 +936,7 @@
     <t>MedicationDispense.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -1040,7 +1040,7 @@
     <t>MedicationDispense.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|Device|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1076,7 +1076,7 @@
     <t>MedicationDispense.authorizingPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest)
 </t>
   </si>
   <si>
@@ -1349,6 +1349,10 @@
     <t>MedicationDispense.destination</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
+</t>
+  </si>
+  <si>
     <t>Where the medication was sent　薬が送られた場所</t>
   </si>
   <si>
@@ -1368,7 +1372,7 @@
     <t>MedicationDispense.receiver</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner)
 </t>
   </si>
   <si>
@@ -2382,7 +2386,7 @@
     <t>MedicationDispense.substitution.responsibleParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole)
 </t>
   </si>
   <si>
@@ -9092,13 +9096,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>286</v>
@@ -9169,21 +9173,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9206,13 +9210,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>286</v>
@@ -9265,7 +9269,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9283,13 +9287,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -9297,7 +9301,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9320,16 +9324,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9379,7 +9383,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9394,10 +9398,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9406,12 +9410,12 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9434,16 +9438,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9493,7 +9497,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9511,7 +9515,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9525,7 +9529,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9551,7 +9555,7 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>209</v>
@@ -9637,7 +9641,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9751,10 +9755,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9776,13 +9780,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9865,10 +9869,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9890,13 +9894,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9979,10 +9983,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -10004,13 +10008,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -10093,10 +10097,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -10118,13 +10122,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10207,7 +10211,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10323,7 +10327,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10346,17 +10350,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -10405,7 +10409,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10423,7 +10427,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10432,12 +10436,12 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10463,14 +10467,14 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -10519,7 +10523,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10537,7 +10541,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10546,12 +10550,12 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10577,16 +10581,16 @@
         <v>186</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10614,10 +10618,10 @@
         <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -10635,7 +10639,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10653,7 +10657,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10662,12 +10666,12 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10693,10 +10697,10 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10747,7 +10751,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10765,7 +10769,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10774,12 +10778,12 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10802,19 +10806,19 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10863,7 +10867,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10881,7 +10885,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10895,7 +10899,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -11007,7 +11011,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11121,7 +11125,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11237,7 +11241,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11263,14 +11267,14 @@
         <v>408</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11319,7 +11323,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11337,7 +11341,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11351,7 +11355,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11374,17 +11378,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11433,7 +11437,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11445,13 +11449,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11465,7 +11469,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11577,7 +11581,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11691,7 +11695,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11714,13 +11718,13 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11771,7 +11775,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11789,7 +11793,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11803,7 +11807,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11826,19 +11830,19 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11887,7 +11891,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11905,7 +11909,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11919,7 +11923,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11942,13 +11946,13 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11999,7 +12003,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12017,7 +12021,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -12031,7 +12035,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12057,16 +12061,16 @@
         <v>363</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -12115,7 +12119,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12133,7 +12137,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12147,7 +12151,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12173,16 +12177,16 @@
         <v>363</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -12231,7 +12235,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12249,7 +12253,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12263,7 +12267,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12289,10 +12293,10 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12322,10 +12326,10 @@
         <v>169</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -12343,7 +12347,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12361,7 +12365,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12375,7 +12379,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12398,13 +12402,13 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12412,7 +12416,7 @@
         <v>77</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -12457,7 +12461,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12475,7 +12479,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12489,7 +12493,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12512,13 +12516,13 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12569,7 +12573,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12587,7 +12591,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12601,7 +12605,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12627,10 +12631,10 @@
         <v>363</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12681,7 +12685,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12699,7 +12703,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12713,7 +12717,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12739,10 +12743,10 @@
         <v>363</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12793,7 +12797,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12811,7 +12815,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12825,7 +12829,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12851,10 +12855,10 @@
         <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12884,10 +12888,10 @@
         <v>169</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12905,7 +12909,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12923,7 +12927,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12937,7 +12941,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12963,13 +12967,13 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12999,7 +13003,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -13017,7 +13021,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -13049,7 +13053,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13072,16 +13076,16 @@
         <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13131,7 +13135,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -13163,7 +13167,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13189,16 +13193,16 @@
         <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -13226,10 +13230,10 @@
         <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
@@ -13247,7 +13251,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13265,7 +13269,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13279,7 +13283,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13302,13 +13306,13 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13359,7 +13363,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13377,7 +13381,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13391,7 +13395,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13417,13 +13421,13 @@
         <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13452,10 +13456,10 @@
         <v>110</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13473,7 +13477,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13491,7 +13495,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13505,7 +13509,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13617,7 +13621,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13731,7 +13735,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13757,13 +13761,13 @@
         <v>224</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>228</v>
@@ -13847,7 +13851,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13959,7 +13963,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14073,7 +14077,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14189,7 +14193,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14303,7 +14307,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14417,7 +14421,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14531,7 +14535,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14647,7 +14651,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14763,7 +14767,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14786,16 +14790,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14824,10 +14828,10 @@
         <v>180</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14845,7 +14849,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14863,7 +14867,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14872,12 +14876,12 @@
         <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14903,16 +14907,16 @@
         <v>186</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14940,10 +14944,10 @@
         <v>180</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14961,7 +14965,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14979,7 +14983,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14988,12 +14992,12 @@
         <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15019,16 +15023,16 @@
         <v>186</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>346</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
@@ -15056,10 +15060,10 @@
         <v>180</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
@@ -15077,7 +15081,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -15095,7 +15099,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -15104,12 +15108,12 @@
         <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15135,16 +15139,16 @@
         <v>186</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15172,10 +15176,10 @@
         <v>180</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15193,7 +15197,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -15211,7 +15215,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15220,12 +15224,12 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15248,13 +15252,13 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15305,7 +15309,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -15332,12 +15336,12 @@
         <v>77</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15449,7 +15453,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15563,7 +15567,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15589,14 +15593,14 @@
         <v>186</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15624,10 +15628,10 @@
         <v>180</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15645,7 +15649,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15672,12 +15676,12 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15700,19 +15704,19 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15761,7 +15765,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15779,7 +15783,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15788,12 +15792,12 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15816,19 +15820,19 @@
         <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
@@ -15877,7 +15881,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15895,7 +15899,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15904,12 +15908,12 @@
         <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15932,19 +15936,19 @@
         <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -15993,7 +15997,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -16011,7 +16015,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -16020,12 +16024,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16051,16 +16055,16 @@
         <v>353</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
@@ -16109,7 +16113,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -16127,7 +16131,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -16141,7 +16145,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16167,14 +16171,14 @@
         <v>353</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16223,7 +16227,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -16241,7 +16245,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16255,7 +16259,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16281,10 +16285,10 @@
         <v>304</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16335,7 +16339,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -16353,13 +16357,13 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16367,7 +16371,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16479,7 +16483,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16593,7 +16597,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16709,7 +16713,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16735,10 +16739,10 @@
         <v>264</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16789,7 +16793,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>86</v>
@@ -16807,7 +16811,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16821,7 +16825,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16847,13 +16851,13 @@
         <v>186</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16882,10 +16886,10 @@
         <v>180</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>77</v>
@@ -16903,7 +16907,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -16927,15 +16931,15 @@
         <v>77</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16961,10 +16965,10 @@
         <v>186</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>346</v>
@@ -16996,10 +17000,10 @@
         <v>180</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>77</v>
@@ -17017,7 +17021,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -17035,13 +17039,13 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>77</v>
@@ -17049,7 +17053,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17072,13 +17076,13 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M126" t="s" s="2">
         <v>286</v>
@@ -17131,7 +17135,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -17149,13 +17153,13 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>77</v>
@@ -17163,11 +17167,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17186,16 +17190,16 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17245,7 +17249,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -17263,7 +17267,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17277,7 +17281,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17300,16 +17304,16 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17359,7 +17363,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -17377,7 +17381,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>
